--- a/doc/Flow Dst.xlsx
+++ b/doc/Flow Dst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="16515" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$O$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,7 +128,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -131,10 +136,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -142,7 +147,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -154,42 +159,42 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,19 +222,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,8 +791,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1362074</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -795,7 +800,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>21200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -804,8 +809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372474" y="3457576"/>
-          <a:ext cx="4867275" cy="238124"/>
+          <a:off x="9418320" y="3190241"/>
+          <a:ext cx="2620644" cy="254879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -938,8 +943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114426" y="1076325"/>
-          <a:ext cx="1752600" cy="238125"/>
+          <a:off x="1371601" y="853440"/>
+          <a:ext cx="1300479" cy="233680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2306,13 +2311,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2842,13 +2847,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3488,13 +3493,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>789213</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1005213</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4397,71 +4402,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="1.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="23.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="1.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="30">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4482,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -4496,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -4511,7 +4516,7 @@
       <c r="L4" s="3"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -4530,7 +4535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -4545,7 +4550,7 @@
       <c r="L6" s="3"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -4564,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -4579,7 +4584,7 @@
       <c r="L8" s="3"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -4596,7 +4601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -4610,7 +4615,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -4624,7 +4629,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -4638,7 +4643,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -4654,7 +4659,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -4668,7 +4673,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -4682,7 +4687,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -4696,7 +4701,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -4712,7 +4717,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -4726,7 +4731,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -4740,7 +4745,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -4754,7 +4759,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -4770,7 +4775,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -4784,7 +4789,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -4798,7 +4803,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -4812,7 +4817,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -4826,7 +4831,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -4840,7 +4845,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -4854,7 +4859,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -4868,7 +4873,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -4882,7 +4887,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -4896,7 +4901,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -4910,7 +4915,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
@@ -4926,7 +4931,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -4937,12 +4942,9 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -4956,7 +4958,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
@@ -4967,10 +4969,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -4984,7 +4988,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -4998,7 +5002,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -5012,7 +5016,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -5026,7 +5030,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -5039,7 +5043,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -5052,7 +5056,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -5074,8 +5078,13 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5085,9 +5094,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5097,8 +5111,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/Flow Dst.xlsx
+++ b/doc/Flow Dst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>NEW NODE</t>
   </si>
   <si>
     <t>CONTACT</t>
-  </si>
-  <si>
-    <t>LEADER</t>
   </si>
   <si>
     <t>ARBRE</t>
@@ -87,12 +84,34 @@
     <t>SOUS-ARBRE
 impacté par split</t>
   </si>
+  <si>
+    <t>asynchrone avec wait</t>
+  </si>
+  <si>
+    <t>LEADER
+du contact</t>
+  </si>
+  <si>
+    <t>'b'</t>
+  </si>
+  <si>
+    <t>'l'</t>
+  </si>
+  <si>
+    <t>'a'</t>
+  </si>
+  <si>
+    <t>'u'</t>
+  </si>
+  <si>
+    <t>'g'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +123,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +263,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,13 +425,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -407,8 +440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="1333500"/>
-          <a:ext cx="1381125" cy="238125"/>
+          <a:off x="3929063" y="1547814"/>
+          <a:ext cx="2905124" cy="237600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -482,13 +515,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -526,13 +559,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,8 +574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6877050" y="2047875"/>
-          <a:ext cx="2438400" cy="238125"/>
+          <a:off x="6877050" y="2262189"/>
+          <a:ext cx="1969294" cy="237600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -616,13 +649,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -659,14 +692,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>611588</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858001" y="2524124"/>
-          <a:ext cx="2447924" cy="238125"/>
+          <a:off x="6858001" y="2738437"/>
+          <a:ext cx="1778400" cy="238125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -750,13 +783,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -792,15 +825,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>615633</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>21200</xdr:rowOff>
+      <xdr:rowOff>9294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -809,8 +842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9418320" y="3190241"/>
-          <a:ext cx="2620644" cy="254879"/>
+          <a:off x="8640446" y="3440908"/>
+          <a:ext cx="2299016" cy="259324"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -884,13 +917,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -928,11 +961,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -943,8 +976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371601" y="853440"/>
-          <a:ext cx="1300479" cy="233680"/>
+          <a:off x="1202532" y="1071564"/>
+          <a:ext cx="2726530" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1016,46 +1049,22 @@
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="C0504D">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:srgbClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:srgbClr val="C0504D">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:srgbClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="C0504D">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:srgbClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="C0504D">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:ln/>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="166307" tIns="17336" rIns="131635" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
@@ -1104,15 +1113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>642938</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1121,8 +1130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934325" y="3714750"/>
-          <a:ext cx="3333750" cy="238124"/>
+          <a:off x="8667751" y="3929063"/>
+          <a:ext cx="1190625" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1196,13 +1205,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1237,16 +1246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>1285874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1255,8 +1264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12696826" y="4410075"/>
-          <a:ext cx="4133850" cy="238124"/>
+          <a:off x="9370219" y="4405313"/>
+          <a:ext cx="3083718" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1333,14 +1342,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1371,16 +1380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>702468</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>1238249</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>237600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1389,8 +1398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12696826" y="4886325"/>
-          <a:ext cx="4133850" cy="238124"/>
+          <a:off x="9394031" y="4881563"/>
+          <a:ext cx="3012281" cy="237600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1467,14 +1476,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1505,16 +1514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476138</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1523,8 +1532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18640426" y="5362575"/>
-          <a:ext cx="2305050" cy="238124"/>
+          <a:off x="12096751" y="5357813"/>
+          <a:ext cx="1357200" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1601,14 +1610,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1639,16 +1648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>988219</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>535669</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1657,8 +1666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18640426" y="5838825"/>
-          <a:ext cx="2305050" cy="238124"/>
+          <a:off x="12156282" y="5834063"/>
+          <a:ext cx="1357200" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1735,14 +1744,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1776,11 +1785,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1791,8 +1800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="5362575"/>
-          <a:ext cx="4705350" cy="238125"/>
+          <a:off x="6334125" y="6310314"/>
+          <a:ext cx="2928937" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1866,13 +1875,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1910,11 +1919,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1154906</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1925,8 +1934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="6076950"/>
-          <a:ext cx="9829800" cy="238125"/>
+          <a:off x="6334125" y="6786564"/>
+          <a:ext cx="5988844" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2003,14 +2012,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2041,14 +2050,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1547811</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1156461</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2059,8 +2068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="6553200"/>
-          <a:ext cx="9829800" cy="238125"/>
+          <a:off x="6334124" y="7262813"/>
+          <a:ext cx="5990400" cy="238125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2134,13 +2143,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2175,16 +2184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738133</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1264</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1035843</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2193,8 +2202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326821" y="7701643"/>
-          <a:ext cx="14356800" cy="244928"/>
+          <a:off x="1940664" y="7977187"/>
+          <a:ext cx="10263242" cy="237602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2268,13 +2277,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2309,16 +2318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738189</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1034431</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2327,8 +2336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="7743825"/>
-          <a:ext cx="14335125" cy="238125"/>
+          <a:off x="1940720" y="8453437"/>
+          <a:ext cx="10261774" cy="237602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2402,13 +2411,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2443,16 +2452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738133</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1264</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1035843</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2461,8 +2470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326821" y="8681357"/>
-          <a:ext cx="14356800" cy="244929"/>
+          <a:off x="1940664" y="9167812"/>
+          <a:ext cx="10263242" cy="237602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2536,13 +2545,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2577,16 +2586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738133</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1264</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1035843</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2595,8 +2604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326821" y="9171214"/>
-          <a:ext cx="14356800" cy="244929"/>
+          <a:off x="1940664" y="9644062"/>
+          <a:ext cx="10263242" cy="237602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2670,13 +2679,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2711,16 +2720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738133</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1264</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1035843</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>237601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2729,8 +2738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326821" y="9661071"/>
-          <a:ext cx="14356800" cy="244929"/>
+          <a:off x="1940664" y="10120312"/>
+          <a:ext cx="10263242" cy="237602"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2804,13 +2813,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2845,16 +2854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1119188</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666638</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2863,8 +2872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13307786" y="8681358"/>
-          <a:ext cx="1543050" cy="238124"/>
+          <a:off x="12287251" y="8941595"/>
+          <a:ext cx="1357200" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2938,13 +2947,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -3493,13 +3502,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>789213</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1005213</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3648,13 +3657,13 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -3779,145 +3788,14 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="166307" tIns="17336" rIns="131635" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="1300" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Forme libre 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14913429" y="1578429"/>
-          <a:ext cx="762000" cy="244929"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1208493"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 228599"/>
-            <a:gd name="connsiteX1" fmla="*/ 1094194 w 1208493"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 228599"/>
-            <a:gd name="connsiteX2" fmla="*/ 1208493 w 1208493"/>
-            <a:gd name="connsiteY2" fmla="*/ 114300 h 228599"/>
-            <a:gd name="connsiteX3" fmla="*/ 1094194 w 1208493"/>
-            <a:gd name="connsiteY3" fmla="*/ 228599 h 228599"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 1208493"/>
-            <a:gd name="connsiteY4" fmla="*/ 228599 h 228599"/>
-            <a:gd name="connsiteX5" fmla="*/ 114300 w 1208493"/>
-            <a:gd name="connsiteY5" fmla="*/ 114300 h 228599"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 1208493"/>
-            <a:gd name="connsiteY6" fmla="*/ 0 h 228599"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1208493" h="228599">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1094194" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1208493" y="114300"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1094194" y="228599"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="228599"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="114300" y="114300"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3961,6 +3839,137 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Forme libre 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14918531" y="1785938"/>
+          <a:ext cx="726282" cy="238126"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 228599"/>
+            <a:gd name="connsiteX1" fmla="*/ 1094194 w 1208493"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 228599"/>
+            <a:gd name="connsiteX2" fmla="*/ 1208493 w 1208493"/>
+            <a:gd name="connsiteY2" fmla="*/ 114300 h 228599"/>
+            <a:gd name="connsiteX3" fmla="*/ 1094194 w 1208493"/>
+            <a:gd name="connsiteY3" fmla="*/ 228599 h 228599"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY4" fmla="*/ 228599 h 228599"/>
+            <a:gd name="connsiteX5" fmla="*/ 114300 w 1208493"/>
+            <a:gd name="connsiteY5" fmla="*/ 114300 h 228599"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 228599"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1208493" h="228599">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1094194" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1208493" y="114300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1094194" y="228599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="228599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="114300" y="114300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="166307" tIns="17336" rIns="131635" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1300" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Forme libre 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4041,17 +4050,148 @@
         </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="166307" tIns="17336" rIns="131635" bIns="17336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1300" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Forme libre 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14918531" y="1785938"/>
+          <a:ext cx="726282" cy="238125"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 228599"/>
+            <a:gd name="connsiteX1" fmla="*/ 1094194 w 1208493"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 228599"/>
+            <a:gd name="connsiteX2" fmla="*/ 1208493 w 1208493"/>
+            <a:gd name="connsiteY2" fmla="*/ 114300 h 228599"/>
+            <a:gd name="connsiteX3" fmla="*/ 1094194 w 1208493"/>
+            <a:gd name="connsiteY3" fmla="*/ 228599 h 228599"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY4" fmla="*/ 228599 h 228599"/>
+            <a:gd name="connsiteX5" fmla="*/ 114300 w 1208493"/>
+            <a:gd name="connsiteY5" fmla="*/ 114300 h 228599"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 1208493"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 228599"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1208493" h="228599">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1094194" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1208493" y="114300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1094194" y="228599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="228599"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="114300" y="114300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4405,35 +4545,35 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="1.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1"/>
+    <col min="14" max="14" width="1.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4443,32 +4583,32 @@
         <v>1</v>
       </c>
       <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
-        <v>2</v>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -4482,10 +4622,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
@@ -4498,10 +4640,10 @@
       <c r="K3" s="5"/>
       <c r="L3" s="3"/>
       <c r="O3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -4516,12 +4658,12 @@
       <c r="L4" s="3"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
@@ -4532,14 +4674,16 @@
       <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="O5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
@@ -4550,14 +4694,14 @@
       <c r="L6" s="3"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
@@ -4566,16 +4710,18 @@
       <c r="K7" s="5"/>
       <c r="L7" s="3"/>
       <c r="O7" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -4584,7 +4730,7 @@
       <c r="L8" s="3"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -4598,10 +4744,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
       <c r="O9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -4614,22 +4760,28 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="3"/>
+      <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="3"/>
+      <c r="O11" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -4643,7 +4795,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -4651,7 +4803,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -4659,7 +4811,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -4673,7 +4825,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -4687,7 +4839,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -4701,7 +4853,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -4711,13 +4863,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -4731,7 +4883,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -4745,7 +4897,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -4759,7 +4911,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -4771,11 +4923,11 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -4789,7 +4941,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -4803,7 +4955,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -4817,7 +4969,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -4831,7 +4983,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -4845,7 +4997,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -4859,13 +5011,12 @@
       <c r="K27" s="5"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -4873,13 +5024,15 @@
       <c r="K28" s="5"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -4887,13 +5040,14 @@
       <c r="K29" s="5"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -4901,7 +5055,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -4915,11 +5069,13 @@
       <c r="K31" s="5"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="3"/>
@@ -4931,7 +5087,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -4944,7 +5100,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -4958,8 +5114,10 @@
       <c r="K34" s="5"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -4969,12 +5127,10 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="K35" s="5"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -4985,10 +5141,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -5002,7 +5160,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -5016,7 +5174,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -5030,7 +5188,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -5041,9 +5199,10 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -5056,8 +5215,10 @@
       <c r="J41" s="4"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
@@ -5069,6 +5230,9 @@
       <c r="J42" s="4"/>
       <c r="L42" s="3"/>
     </row>
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M1:O1"/>
@@ -5078,8 +5242,8 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5094,7 +5258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5111,7 +5275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
